--- a/core/src/test/resources/com/supwisdom/spreadsheet/mapper/f2w/excel/test.xlsx
+++ b/core/src/test/resources/com/supwisdom/spreadsheet/mapper/f2w/excel/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="2920" yWindow="1420" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,121 +27,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>-20000</t>
-  </si>
-  <si>
-    <t>10000000000000</t>
-  </si>
-  <si>
-    <t>20000000000000</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>0.00000002</t>
-  </si>
-  <si>
-    <t>0.00000000000000000001</t>
-  </si>
-  <si>
-    <t>0.00000000000000000002</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>1.0E-20</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.00001</t>
-  </si>
-  <si>
-    <t>int1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigDecimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>布尔</t>
+    <rPh sb="0" eb="1">
+      <t>bu er</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>树维</t>
+    <rPh sb="0" eb="1">
+      <t>shu mu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei hu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <rPh sb="0" eb="1">
+      <t>chang gui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <rPh sb="0" eb="1">
+      <t>shu zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <rPh sb="0" eb="1">
+      <t>huo bi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计专用</t>
+    <rPh sb="0" eb="1">
+      <t>kuai ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan yong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <rPh sb="0" eb="1">
+      <t>bai fen bi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <rPh sb="0" eb="1">
+      <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学计数</t>
+    <rPh sb="0" eb="1">
+      <t>ke xue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <rPh sb="0" eb="1">
+      <t>wen ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <rPh sb="0" eb="1">
+      <t>te shu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <rPh sb="0" eb="1">
+      <t>zi ding yi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本2</t>
+    <rPh sb="0" eb="1">
+      <t>wen ben</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]General"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,8 +206,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,126 +528,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-123.32</v>
+      </c>
+      <c r="D2" s="9">
+        <v>123.4</v>
+      </c>
+      <c r="E2" s="3">
+        <v>42778</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I2" s="13">
+        <v>31008</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="15">
+        <v>31008</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="M2" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
